--- a/MauExcel.xlsx
+++ b/MauExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Trang_Trai_Nuoi_Heo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TendouHakai\Desktop\merge code lại\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AB176D-535E-4637-A3B6-8D7E3822BFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FF59B6-039C-4223-9CB0-6F787B83C7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6315" yWindow="1260" windowWidth="17265" windowHeight="9960" xr2:uid="{819DCD22-0DE8-4830-822C-F752579029D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{819DCD22-0DE8-4830-822C-F752579029D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,21 +454,21 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -526,7 +526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -552,7 +552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
